--- a/data/interim/Errors.xlsx
+++ b/data/interim/Errors.xlsx
@@ -577,7 +577,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>626</v>
+        <v>1626</v>
       </c>
       <c r="B2" t="n">
         <v>2127</v>
